--- a/JND_Study/JND_Data/2024-01-30_20-47.xlsx
+++ b/JND_Study/JND_Data/2024-01-30_20-47.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sreela/Documents/School/Stanford/Year3_2/PIEZO2/JND_Study/JND_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EAD818C-9684-2144-83DF-10C24CCDDB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684F924A-DC86-1647-A156-A27435E38873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37980" yWindow="-500" windowWidth="26740" windowHeight="22000" xr2:uid="{1B4DE873-A15E-BD41-A0B0-8A0C0D8007DE}"/>
+    <workbookView xWindow="38480" yWindow="0" windowWidth="26740" windowHeight="22000" activeTab="1" xr2:uid="{1B4DE873-A15E-BD41-A0B0-8A0C0D8007DE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="trial" sheetId="1" r:id="rId1"/>
+    <sheet name="forceStaircase" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="trial_2024_01_30_20_47" localSheetId="0">Sheet1!$A$1:$I$51</definedName>
+    <definedName name="forceOfStairCase_onePoke_2024_01_30_20_47" localSheetId="1">forceStaircase!$A$1:$F$51</definedName>
+    <definedName name="trial_2024_01_30_20_47" localSheetId="0">trial!$A$1:$I$51</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +42,19 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{BC09CFE6-D28E-9E4E-B370-DFDD2A692B40}" name="trial_2024-01-30_20-47" type="6" refreshedVersion="8" background="1" saveData="1">
+  <connection id="1" xr16:uid="{A1876DE3-0C14-534A-A8BD-7A0D28632357}" name="forceOfStairCase_onePoke_2024-01-30_20-47" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/Sreela/Documents/School/Stanford/Year3_2/PIEZO2/JND_Study/JND_Data/forceOfStairCase_onePoke_2024-01-30_20-47.csv" comma="1">
+      <textFields count="6">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" xr16:uid="{BC09CFE6-D28E-9E4E-B370-DFDD2A692B40}" name="trial_2024-01-30_20-47" type="6" refreshedVersion="8" background="1" saveData="1">
     <textPr codePage="10000" sourceFile="/Users/Sreela/Documents/School/Stanford/Year3_2/PIEZO2/JND_Study/JND_Data/2024-01-30_20-47/trial_2024-01-30_20-47.csv" comma="1">
       <textFields count="9">
         <textField/>
@@ -59,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>trialCount</t>
   </si>
@@ -89,6 +103,21 @@
   </si>
   <si>
     <t>16 reversals</t>
+  </si>
+  <si>
+    <t>testCommand</t>
+  </si>
+  <si>
+    <t>meanForce</t>
+  </si>
+  <si>
+    <t>stdevForce</t>
+  </si>
+  <si>
+    <t>meanForce1</t>
+  </si>
+  <si>
+    <t>stdevForce1</t>
   </si>
 </sst>
 </file>
@@ -206,7 +235,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>trial!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -241,7 +270,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$51</c:f>
+              <c:f>trial!$B$2:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -679,7 +708,7 @@
           </c:errBars>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$34:$R$34</c:f>
+              <c:f>trial!$Q$34:$R$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -695,6 +724,1600 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A8F4-C040-8138-F22A3134256D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="867211807"/>
+        <c:axId val="928100447"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="867211807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="928100447"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="928100447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="867211807"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>staircase actuator command (fixed) - 1 actuator</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>forceStaircase!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testCommand</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>forceStaircase!$B$2:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-15B7-F944-AC5E-7D630FAE0EB2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="972298207"/>
+        <c:axId val="915957391"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="972298207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="915957391"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="915957391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="120"/>
+          <c:min val="90"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="972298207"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>forceStaircase!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>meanForce</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>forceStaircase!$C$2:$C$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>8.7906249999999897</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.5106249999999992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1368749999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5818750000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1216071428571404</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.8757446808510601</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.3344210526315701</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.8617857142857099</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.6312499999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.8846551724137903</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.8846551724137903</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.8205714285714203</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.8205714285714203</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.7021739130434703</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.7021739130434703</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.7923684210526298</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.7923684210526298</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.8757446808510601</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.8757446808510601</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.3344210526315701</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.3344210526315701</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.8617857142857099</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.8235999999999901</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.8235999999999901</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.8846551724137903</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.8846551724137903</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.9072368421052603</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.9072368421052603</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.7021739130434703</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.7021739130434703</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.1216071428571404</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.1216071428571404</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.8757446808510601</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.8757446808510601</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.3344210526315701</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.3344210526315701</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.8617857142857099</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.8235999999999901</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.8235999999999901</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.8846551724137903</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.8846551724137903</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.9072368421052603</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.9072368421052603</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.7021739130434703</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.7021739130434703</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.7923684210526298</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.7923684210526298</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.3185714285714196</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.3185714285714196</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9319999999999897</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D390-3549-AEC6-9D13C2564735}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="830193167"/>
+        <c:axId val="830304911"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="830193167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="830304911"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="830304911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="830193167"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>forceStaircase!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>meanForce1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>forceStaircase!$E$2:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>-1.213125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.1456249999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.0131250000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.73428571428571399</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.59680851063829699</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.57884210526315705</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.60482142857142795</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.578125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.78293103448275803</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.78293103448275803</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.78942857142857104</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.78942857142857104</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.55469565217391203</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.55469565217391203</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.60539473684210499</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.60539473684210499</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.59680851063829699</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.59680851063829699</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.57884210526315705</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.57884210526315705</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.60482142857142795</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.68613333333333304</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.68613333333333304</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.78293103448275803</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.78293103448275803</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.73723684210526297</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.73723684210526297</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.55469565217391203</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.55469565217391203</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.73428571428571399</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.73428571428571399</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.59680851063829699</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.59680851063829699</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.57884210526315705</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.57884210526315705</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.60482142857142795</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.68613333333333304</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.68613333333333304</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.78293103448275803</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.78293103448275803</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.73723684210526297</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.73723684210526297</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.55469565217391203</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.55469565217391203</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.60539473684210499</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.60539473684210499</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.49</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.49333333333333301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4A93-9E43-8F1D-891D0EE6DF67}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1062905391"/>
+        <c:axId val="1063052575"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1062905391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1063052575"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1063052575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1062905391"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>trial!$Q$34:$R$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>98.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>103.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-76B3-334D-9C20-111F29B6257B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -949,6 +2572,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -1453,6 +3236,2018 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1995,16 +5790,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>448791</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>123181</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>413267</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>185349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>67791</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>21581</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>32266</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>83749</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2032,8 +5827,163 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2409420-BF1E-0936-5143-D347A7995CA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D706CE7D-188C-D637-3A41-3C16D280F781}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{863086AA-108B-BA22-7A6B-8D7E4D901A06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>447164</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>116520</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D34FB0B7-5949-554A-B24F-1038E7B33EC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="trial_2024-01-30_20-47" connectionId="1" xr16:uid="{07978A7D-3607-0841-BC9F-EED40D64B000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="trial_2024-01-30_20-47" connectionId="2" xr16:uid="{07978A7D-3607-0841-BC9F-EED40D64B000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="forceOfStairCase_onePoke_2024-01-30_20-47" connectionId="1" xr16:uid="{EDC64C12-E75F-1844-A114-7D2120A3FCE5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2335,8 +6285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745143AA-55AE-3E40-8456-FB51B42ECA8A}">
   <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
-      <selection activeCell="U24" sqref="U24"/>
+    <sheetView topLeftCell="J7" zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8:S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3961,4 +7911,1161 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A85C539-6AFE-FB41-8E42-621377AD1F9A}">
+  <dimension ref="A1:P51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>120</v>
+      </c>
+      <c r="C2">
+        <v>8.7906249999999897</v>
+      </c>
+      <c r="D2">
+        <v>0.502275680652567</v>
+      </c>
+      <c r="E2">
+        <v>-1.213125</v>
+      </c>
+      <c r="F2">
+        <v>0.101717669925141</v>
+      </c>
+      <c r="N2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>117</v>
+      </c>
+      <c r="C3">
+        <v>8.5106249999999992</v>
+      </c>
+      <c r="D3">
+        <v>0.170824059707642</v>
+      </c>
+      <c r="E3">
+        <v>-1.1456249999999999</v>
+      </c>
+      <c r="F3">
+        <v>2.1785531322416701E-2</v>
+      </c>
+      <c r="O3">
+        <f>O2+1</f>
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>114</v>
+      </c>
+      <c r="C4">
+        <v>8.1368749999999999</v>
+      </c>
+      <c r="D4">
+        <v>0.106226100253186</v>
+      </c>
+      <c r="E4">
+        <v>-1.05</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O17" si="0">O3+1</f>
+        <v>3</v>
+      </c>
+      <c r="P4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>111</v>
+      </c>
+      <c r="C5">
+        <v>7.5818750000000001</v>
+      </c>
+      <c r="D5">
+        <v>5.7902801098047303E-2</v>
+      </c>
+      <c r="E5">
+        <v>-1.0131250000000001</v>
+      </c>
+      <c r="F5">
+        <v>7.3969482727676297E-2</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="P5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>108</v>
+      </c>
+      <c r="C6">
+        <v>7.1216071428571404</v>
+      </c>
+      <c r="D6">
+        <v>1.38412269375859</v>
+      </c>
+      <c r="E6">
+        <v>-0.73428571428571399</v>
+      </c>
+      <c r="F6">
+        <v>0.19778105808892699</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="P6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>105</v>
+      </c>
+      <c r="C7">
+        <v>6.8757446808510601</v>
+      </c>
+      <c r="D7">
+        <v>1.1565313964533499</v>
+      </c>
+      <c r="E7">
+        <v>-0.59680851063829699</v>
+      </c>
+      <c r="F7">
+        <v>0.18599481098891699</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="P7">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>102</v>
+      </c>
+      <c r="C8">
+        <v>6.3344210526315701</v>
+      </c>
+      <c r="D8">
+        <v>1.2407185658144899</v>
+      </c>
+      <c r="E8">
+        <v>-0.57884210526315705</v>
+      </c>
+      <c r="F8">
+        <v>0.19349344152026701</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="P8">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>99</v>
+      </c>
+      <c r="C9">
+        <v>5.8617857142857099</v>
+      </c>
+      <c r="D9">
+        <v>0.927881818103656</v>
+      </c>
+      <c r="E9">
+        <v>-0.60482142857142795</v>
+      </c>
+      <c r="F9">
+        <v>0.193833425094005</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="P9">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>96</v>
+      </c>
+      <c r="C10">
+        <v>5.6312499999999996</v>
+      </c>
+      <c r="D10">
+        <v>4.3571062644833299E-2</v>
+      </c>
+      <c r="E10">
+        <v>-0.578125</v>
+      </c>
+      <c r="F10">
+        <v>9.7289436091489295E-2</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="P10">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>101</v>
+      </c>
+      <c r="C11">
+        <v>5.8846551724137903</v>
+      </c>
+      <c r="D11">
+        <v>1.1806824670462699</v>
+      </c>
+      <c r="E11">
+        <v>-0.78293103448275803</v>
+      </c>
+      <c r="F11">
+        <v>0.19121218238394999</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="P11">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>101</v>
+      </c>
+      <c r="C12">
+        <v>5.8846551724137903</v>
+      </c>
+      <c r="D12">
+        <v>1.1806824670462699</v>
+      </c>
+      <c r="E12">
+        <v>-0.78293103448275803</v>
+      </c>
+      <c r="F12">
+        <v>0.19121218238394999</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="P12">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>98</v>
+      </c>
+      <c r="C13">
+        <v>5.8205714285714203</v>
+      </c>
+      <c r="D13">
+        <v>0.65065656008655803</v>
+      </c>
+      <c r="E13">
+        <v>-0.78942857142857104</v>
+      </c>
+      <c r="F13">
+        <v>0.108810263621534</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="P13">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>98</v>
+      </c>
+      <c r="C14">
+        <v>5.8205714285714203</v>
+      </c>
+      <c r="D14">
+        <v>0.65065656008655803</v>
+      </c>
+      <c r="E14">
+        <v>-0.78942857142857104</v>
+      </c>
+      <c r="F14">
+        <v>0.108810263621534</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="P14">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>103</v>
+      </c>
+      <c r="C15">
+        <v>6.7021739130434703</v>
+      </c>
+      <c r="D15">
+        <v>1.1937618891617801</v>
+      </c>
+      <c r="E15">
+        <v>-0.55469565217391203</v>
+      </c>
+      <c r="F15">
+        <v>0.276126378561734</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="P15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>103</v>
+      </c>
+      <c r="C16">
+        <v>6.7021739130434703</v>
+      </c>
+      <c r="D16">
+        <v>1.1937618891617801</v>
+      </c>
+      <c r="E16">
+        <v>-0.55469565217391203</v>
+      </c>
+      <c r="F16">
+        <v>0.276126378561734</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="P16">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>100</v>
+      </c>
+      <c r="C17">
+        <v>5.7923684210526298</v>
+      </c>
+      <c r="D17">
+        <v>1.10944493995522</v>
+      </c>
+      <c r="E17">
+        <v>-0.60539473684210499</v>
+      </c>
+      <c r="F17">
+        <v>0.17685439141218001</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="P17">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>100</v>
+      </c>
+      <c r="C18">
+        <v>5.7923684210526298</v>
+      </c>
+      <c r="D18">
+        <v>1.10944493995522</v>
+      </c>
+      <c r="E18">
+        <v>-0.60539473684210499</v>
+      </c>
+      <c r="F18">
+        <v>0.17685439141218001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>105</v>
+      </c>
+      <c r="C19">
+        <v>6.8757446808510601</v>
+      </c>
+      <c r="D19">
+        <v>1.1565313964533499</v>
+      </c>
+      <c r="E19">
+        <v>-0.59680851063829699</v>
+      </c>
+      <c r="F19">
+        <v>0.18599481098891699</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>105</v>
+      </c>
+      <c r="C20">
+        <v>6.8757446808510601</v>
+      </c>
+      <c r="D20">
+        <v>1.1565313964533499</v>
+      </c>
+      <c r="E20">
+        <v>-0.59680851063829699</v>
+      </c>
+      <c r="F20">
+        <v>0.18599481098891699</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>102</v>
+      </c>
+      <c r="C21">
+        <v>6.3344210526315701</v>
+      </c>
+      <c r="D21">
+        <v>1.2407185658144899</v>
+      </c>
+      <c r="E21">
+        <v>-0.57884210526315705</v>
+      </c>
+      <c r="F21">
+        <v>0.19349344152026701</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>102</v>
+      </c>
+      <c r="C22">
+        <v>6.3344210526315701</v>
+      </c>
+      <c r="D22">
+        <v>1.2407185658144899</v>
+      </c>
+      <c r="E22">
+        <v>-0.57884210526315705</v>
+      </c>
+      <c r="F22">
+        <v>0.19349344152026701</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>99</v>
+      </c>
+      <c r="C23">
+        <v>5.8617857142857099</v>
+      </c>
+      <c r="D23">
+        <v>0.927881818103656</v>
+      </c>
+      <c r="E23">
+        <v>-0.60482142857142795</v>
+      </c>
+      <c r="F23">
+        <v>0.193833425094005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>104</v>
+      </c>
+      <c r="C24">
+        <v>6.8235999999999901</v>
+      </c>
+      <c r="D24">
+        <v>1.2472504586756601</v>
+      </c>
+      <c r="E24">
+        <v>-0.68613333333333304</v>
+      </c>
+      <c r="F24">
+        <v>0.128248647382947</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>104</v>
+      </c>
+      <c r="C25">
+        <v>6.8235999999999901</v>
+      </c>
+      <c r="D25">
+        <v>1.2472504586756601</v>
+      </c>
+      <c r="E25">
+        <v>-0.68613333333333304</v>
+      </c>
+      <c r="F25">
+        <v>0.128248647382947</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>101</v>
+      </c>
+      <c r="C26">
+        <v>5.8846551724137903</v>
+      </c>
+      <c r="D26">
+        <v>1.1806824670462699</v>
+      </c>
+      <c r="E26">
+        <v>-0.78293103448275803</v>
+      </c>
+      <c r="F26">
+        <v>0.19121218238394999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>101</v>
+      </c>
+      <c r="C27">
+        <v>5.8846551724137903</v>
+      </c>
+      <c r="D27">
+        <v>1.1806824670462699</v>
+      </c>
+      <c r="E27">
+        <v>-0.78293103448275803</v>
+      </c>
+      <c r="F27">
+        <v>0.19121218238394999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>106</v>
+      </c>
+      <c r="C28">
+        <v>6.9072368421052603</v>
+      </c>
+      <c r="D28">
+        <v>1.4100565485900201</v>
+      </c>
+      <c r="E28">
+        <v>-0.73723684210526297</v>
+      </c>
+      <c r="F28">
+        <v>0.247022259194178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>106</v>
+      </c>
+      <c r="C29">
+        <v>6.9072368421052603</v>
+      </c>
+      <c r="D29">
+        <v>1.4100565485900201</v>
+      </c>
+      <c r="E29">
+        <v>-0.73723684210526297</v>
+      </c>
+      <c r="F29">
+        <v>0.247022259194178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>103</v>
+      </c>
+      <c r="C30">
+        <v>6.7021739130434703</v>
+      </c>
+      <c r="D30">
+        <v>1.1937618891617801</v>
+      </c>
+      <c r="E30">
+        <v>-0.55469565217391203</v>
+      </c>
+      <c r="F30">
+        <v>0.276126378561734</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>103</v>
+      </c>
+      <c r="C31">
+        <v>6.7021739130434703</v>
+      </c>
+      <c r="D31">
+        <v>1.1937618891617801</v>
+      </c>
+      <c r="E31">
+        <v>-0.55469565217391203</v>
+      </c>
+      <c r="F31">
+        <v>0.276126378561734</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>108</v>
+      </c>
+      <c r="C32">
+        <v>7.1216071428571404</v>
+      </c>
+      <c r="D32">
+        <v>1.38412269375859</v>
+      </c>
+      <c r="E32">
+        <v>-0.73428571428571399</v>
+      </c>
+      <c r="F32">
+        <v>0.19778105808892699</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>108</v>
+      </c>
+      <c r="C33">
+        <v>7.1216071428571404</v>
+      </c>
+      <c r="D33">
+        <v>1.38412269375859</v>
+      </c>
+      <c r="E33">
+        <v>-0.73428571428571399</v>
+      </c>
+      <c r="F33">
+        <v>0.19778105808892699</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>105</v>
+      </c>
+      <c r="C34">
+        <v>6.8757446808510601</v>
+      </c>
+      <c r="D34">
+        <v>1.1565313964533499</v>
+      </c>
+      <c r="E34">
+        <v>-0.59680851063829699</v>
+      </c>
+      <c r="F34">
+        <v>0.18599481098891699</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>105</v>
+      </c>
+      <c r="C35">
+        <v>6.8757446808510601</v>
+      </c>
+      <c r="D35">
+        <v>1.1565313964533499</v>
+      </c>
+      <c r="E35">
+        <v>-0.59680851063829699</v>
+      </c>
+      <c r="F35">
+        <v>0.18599481098891699</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>102</v>
+      </c>
+      <c r="C36">
+        <v>6.3344210526315701</v>
+      </c>
+      <c r="D36">
+        <v>1.2407185658144899</v>
+      </c>
+      <c r="E36">
+        <v>-0.57884210526315705</v>
+      </c>
+      <c r="F36">
+        <v>0.19349344152026701</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>102</v>
+      </c>
+      <c r="C37">
+        <v>6.3344210526315701</v>
+      </c>
+      <c r="D37">
+        <v>1.2407185658144899</v>
+      </c>
+      <c r="E37">
+        <v>-0.57884210526315705</v>
+      </c>
+      <c r="F37">
+        <v>0.19349344152026701</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>99</v>
+      </c>
+      <c r="C38">
+        <v>5.8617857142857099</v>
+      </c>
+      <c r="D38">
+        <v>0.927881818103656</v>
+      </c>
+      <c r="E38">
+        <v>-0.60482142857142795</v>
+      </c>
+      <c r="F38">
+        <v>0.193833425094005</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>104</v>
+      </c>
+      <c r="C39">
+        <v>6.8235999999999901</v>
+      </c>
+      <c r="D39">
+        <v>1.2472504586756601</v>
+      </c>
+      <c r="E39">
+        <v>-0.68613333333333304</v>
+      </c>
+      <c r="F39">
+        <v>0.128248647382947</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>104</v>
+      </c>
+      <c r="C40">
+        <v>6.8235999999999901</v>
+      </c>
+      <c r="D40">
+        <v>1.2472504586756601</v>
+      </c>
+      <c r="E40">
+        <v>-0.68613333333333304</v>
+      </c>
+      <c r="F40">
+        <v>0.128248647382947</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>101</v>
+      </c>
+      <c r="C41">
+        <v>5.8846551724137903</v>
+      </c>
+      <c r="D41">
+        <v>1.1806824670462699</v>
+      </c>
+      <c r="E41">
+        <v>-0.78293103448275803</v>
+      </c>
+      <c r="F41">
+        <v>0.19121218238394999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>101</v>
+      </c>
+      <c r="C42">
+        <v>5.8846551724137903</v>
+      </c>
+      <c r="D42">
+        <v>1.1806824670462699</v>
+      </c>
+      <c r="E42">
+        <v>-0.78293103448275803</v>
+      </c>
+      <c r="F42">
+        <v>0.19121218238394999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>106</v>
+      </c>
+      <c r="C43">
+        <v>6.9072368421052603</v>
+      </c>
+      <c r="D43">
+        <v>1.4100565485900201</v>
+      </c>
+      <c r="E43">
+        <v>-0.73723684210526297</v>
+      </c>
+      <c r="F43">
+        <v>0.247022259194178</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>106</v>
+      </c>
+      <c r="C44">
+        <v>6.9072368421052603</v>
+      </c>
+      <c r="D44">
+        <v>1.4100565485900201</v>
+      </c>
+      <c r="E44">
+        <v>-0.73723684210526297</v>
+      </c>
+      <c r="F44">
+        <v>0.247022259194178</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>103</v>
+      </c>
+      <c r="C45">
+        <v>6.7021739130434703</v>
+      </c>
+      <c r="D45">
+        <v>1.1937618891617801</v>
+      </c>
+      <c r="E45">
+        <v>-0.55469565217391203</v>
+      </c>
+      <c r="F45">
+        <v>0.276126378561734</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>103</v>
+      </c>
+      <c r="C46">
+        <v>6.7021739130434703</v>
+      </c>
+      <c r="D46">
+        <v>1.1937618891617801</v>
+      </c>
+      <c r="E46">
+        <v>-0.55469565217391203</v>
+      </c>
+      <c r="F46">
+        <v>0.276126378561734</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>100</v>
+      </c>
+      <c r="C47">
+        <v>5.7923684210526298</v>
+      </c>
+      <c r="D47">
+        <v>1.10944493995522</v>
+      </c>
+      <c r="E47">
+        <v>-0.60539473684210499</v>
+      </c>
+      <c r="F47">
+        <v>0.17685439141218001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>100</v>
+      </c>
+      <c r="C48">
+        <v>5.7923684210526298</v>
+      </c>
+      <c r="D48">
+        <v>1.10944493995522</v>
+      </c>
+      <c r="E48">
+        <v>-0.60539473684210499</v>
+      </c>
+      <c r="F48">
+        <v>0.17685439141218001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>97</v>
+      </c>
+      <c r="C49">
+        <v>5.3185714285714196</v>
+      </c>
+      <c r="D49">
+        <v>0.57356600246499401</v>
+      </c>
+      <c r="E49">
+        <v>-0.49</v>
+      </c>
+      <c r="F49">
+        <v>0.125811650607451</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>97</v>
+      </c>
+      <c r="C50">
+        <v>5.3185714285714196</v>
+      </c>
+      <c r="D50">
+        <v>0.57356600246499401</v>
+      </c>
+      <c r="E50">
+        <v>-0.49</v>
+      </c>
+      <c r="F50">
+        <v>0.125811650607451</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>94</v>
+      </c>
+      <c r="C51">
+        <v>4.9319999999999897</v>
+      </c>
+      <c r="D51">
+        <v>7.9598994968529402E-2</v>
+      </c>
+      <c r="E51">
+        <v>-0.49333333333333301</v>
+      </c>
+      <c r="F51">
+        <v>7.7344826732123603E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/JND_Study/JND_Data/2024-01-30_20-47.xlsx
+++ b/JND_Study/JND_Data/2024-01-30_20-47.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sreela/Documents/School/Stanford/Year3_2/PIEZO2/JND_Study/JND_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684F924A-DC86-1647-A156-A27435E38873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE20FBA1-EBEA-6E45-ABE1-6B9A502508D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38480" yWindow="0" windowWidth="26740" windowHeight="22000" activeTab="1" xr2:uid="{1B4DE873-A15E-BD41-A0B0-8A0C0D8007DE}"/>
+    <workbookView xWindow="32900" yWindow="-2960" windowWidth="44060" windowHeight="25760" activeTab="1" xr2:uid="{1B4DE873-A15E-BD41-A0B0-8A0C0D8007DE}"/>
   </bookViews>
   <sheets>
     <sheet name="trial" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="forceOfStairCase_onePoke_2024_01_30_20_47" localSheetId="1">forceStaircase!$A$1:$F$51</definedName>
     <definedName name="trial_2024_01_30_20_47" localSheetId="0">trial!$A$1:$I$51</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +43,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{A1876DE3-0C14-534A-A8BD-7A0D28632357}" name="forceOfStairCase_onePoke_2024-01-30_20-47" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/Sreela/Documents/School/Stanford/Year3_2/PIEZO2/JND_Study/JND_Data/forceOfStairCase_onePoke_2024-01-30_20-47.csv" comma="1">
+    <textPr sourceFile="/Users/Sreela/Documents/School/Stanford/Year3_2/PIEZO2/JND_Study/JND_Data/forceOfStairCase_onePoke_2024-01-30_20-47.csv" comma="1">
       <textFields count="6">
         <textField/>
         <textField/>
@@ -55,7 +55,7 @@
     </textPr>
   </connection>
   <connection id="2" xr16:uid="{BC09CFE6-D28E-9E4E-B370-DFDD2A692B40}" name="trial_2024-01-30_20-47" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/Sreela/Documents/School/Stanford/Year3_2/PIEZO2/JND_Study/JND_Data/2024-01-30_20-47/trial_2024-01-30_20-47.csv" comma="1">
+    <textPr sourceFile="/Users/Sreela/Documents/School/Stanford/Year3_2/PIEZO2/JND_Study/JND_Data/2024-01-30_20-47/trial_2024-01-30_20-47.csv" comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>trialCount</t>
   </si>
@@ -119,6 +119,12 @@
   <si>
     <t>stdevForce1</t>
   </si>
+  <si>
+    <t>12.32 + 0.55</t>
+  </si>
+  <si>
+    <t>10.72 + 0.55</t>
+  </si>
 </sst>
 </file>
 
@@ -140,12 +146,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -160,9 +172,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2246,7 +2259,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.9244874994831214E-2"/>
+          <c:y val="0.16624919927082912"/>
+          <c:w val="0.88958177353640089"/>
+          <c:h val="0.72976877235644666"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -5903,16 +5926,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>521741</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>51847</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>539750</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>141063</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>156542</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5939,15 +5962,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>482279</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>447164</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>109570</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>116520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6283,10 +6306,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745143AA-55AE-3E40-8456-FB51B42ECA8A}">
-  <dimension ref="A1:S51"/>
+  <dimension ref="A1:Y51"/>
   <sheetViews>
-    <sheetView topLeftCell="J7" zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8:S23"/>
+    <sheetView zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
+      <selection activeCell="Y30" sqref="Y30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6829,7 +6852,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6865,7 +6888,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6901,7 +6924,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -6937,7 +6960,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -6973,7 +6996,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -7009,7 +7032,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -7044,8 +7067,23 @@
       <c r="S22">
         <v>101</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U22">
+        <f>AVERAGE(S21:S23)</f>
+        <v>103.66666666666667</v>
+      </c>
+      <c r="V22" s="2">
+        <f>(U22-47)*20/(139-47)</f>
+        <v>12.318840579710146</v>
+      </c>
+      <c r="X22">
+        <v>96.33</v>
+      </c>
+      <c r="Y22" s="2">
+        <f>(X22-47)*20/(139-47)</f>
+        <v>10.723913043478261</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -7080,8 +7118,21 @@
       <c r="S23">
         <v>106</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U23">
+        <f>STDEV(S21:S23)</f>
+        <v>2.5166114784235836</v>
+      </c>
+      <c r="V23" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="X23">
+        <v>2.52</v>
+      </c>
+      <c r="Y23" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -7110,7 +7161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -7138,8 +7189,14 @@
       <c r="I25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="V25" t="s">
+        <v>15</v>
+      </c>
+      <c r="X25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -7168,7 +7225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -7197,7 +7254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -7226,7 +7283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -7255,7 +7312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -7284,7 +7341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -7313,7 +7370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -7917,8 +7974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A85C539-6AFE-FB41-8E42-621377AD1F9A}">
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" topLeftCell="F2" zoomScale="197" zoomScaleNormal="197" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/JND_Study/JND_Data/2024-01-30_20-47.xlsx
+++ b/JND_Study/JND_Data/2024-01-30_20-47.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sreela/Documents/School/Stanford/Year3_2/PIEZO2/JND_Study/JND_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE20FBA1-EBEA-6E45-ABE1-6B9A502508D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4576BB6-0D99-C547-AF1F-34C1B97AA0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32900" yWindow="-2960" windowWidth="44060" windowHeight="25760" activeTab="1" xr2:uid="{1B4DE873-A15E-BD41-A0B0-8A0C0D8007DE}"/>
   </bookViews>
   <sheets>
     <sheet name="trial" sheetId="1" r:id="rId1"/>
-    <sheet name="forceStaircase" sheetId="2" r:id="rId2"/>
+    <sheet name="forceStaircase_updated" sheetId="3" r:id="rId2"/>
+    <sheet name="forceStaircaseWRONG" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="forceOfStairCase_onePoke_2024_01_30_20_47" localSheetId="1">forceStaircase!$A$1:$F$51</definedName>
+    <definedName name="force_AND_Position_OfStairCase_onePoke_2024_01_30_20_47" localSheetId="1">forceStaircase_updated!$A$1:$L$51</definedName>
+    <definedName name="forceOfStairCase_onePoke_2024_01_30_20_47" localSheetId="2">forceStaircaseWRONG!$A$1:$F$51</definedName>
     <definedName name="trial_2024_01_30_20_47" localSheetId="0">trial!$A$1:$I$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -42,7 +44,25 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{A1876DE3-0C14-534A-A8BD-7A0D28632357}" name="forceOfStairCase_onePoke_2024-01-30_20-47" type="6" refreshedVersion="8" background="1" saveData="1">
+  <connection id="1" xr16:uid="{234774E9-4659-9A40-AD99-49B18BF7624E}" name="force_AND_Position_OfStairCase_onePoke_2024-01-30_20-47" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/Sreela/Documents/School/Stanford/Year3_2/PIEZO2/JND_Study/JND_Data/force_AND_Position_OfStairCase_onePoke_2024-01-30_20-47.csv" comma="1">
+      <textFields count="12">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" xr16:uid="{A1876DE3-0C14-534A-A8BD-7A0D28632357}" name="forceOfStairCase_onePoke_2024-01-30_20-47" type="6" refreshedVersion="8" background="1" saveData="1">
     <textPr sourceFile="/Users/Sreela/Documents/School/Stanford/Year3_2/PIEZO2/JND_Study/JND_Data/forceOfStairCase_onePoke_2024-01-30_20-47.csv" comma="1">
       <textFields count="6">
         <textField/>
@@ -54,7 +74,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" xr16:uid="{BC09CFE6-D28E-9E4E-B370-DFDD2A692B40}" name="trial_2024-01-30_20-47" type="6" refreshedVersion="8" background="1" saveData="1">
+  <connection id="3" xr16:uid="{BC09CFE6-D28E-9E4E-B370-DFDD2A692B40}" name="trial_2024-01-30_20-47" type="6" refreshedVersion="8" background="1" saveData="1">
     <textPr sourceFile="/Users/Sreela/Documents/School/Stanford/Year3_2/PIEZO2/JND_Study/JND_Data/2024-01-30_20-47/trial_2024-01-30_20-47.csv" comma="1">
       <textFields count="9">
         <textField/>
@@ -73,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>trialCount</t>
   </si>
@@ -125,6 +145,24 @@
   <si>
     <t>10.72 + 0.55</t>
   </si>
+  <si>
+    <t>testCommandMM</t>
+  </si>
+  <si>
+    <t>meanPos</t>
+  </si>
+  <si>
+    <t>stdevPos</t>
+  </si>
+  <si>
+    <t>meanPos1</t>
+  </si>
+  <si>
+    <t>stdevPos1</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
 </sst>
 </file>
 
@@ -172,10 +210,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,6 +603,1158 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="887313744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>forceStaircaseWRONG!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>meanForce</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>forceStaircaseWRONG!$C$2:$C$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>8.7906249999999897</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.5106249999999992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1368749999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5818750000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1216071428571404</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.8757446808510601</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.3344210526315701</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.8617857142857099</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.6312499999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.8846551724137903</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.8846551724137903</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.8205714285714203</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.8205714285714203</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.7021739130434703</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.7021739130434703</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.7923684210526298</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.7923684210526298</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.8757446808510601</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.8757446808510601</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.3344210526315701</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.3344210526315701</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.8617857142857099</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.8235999999999901</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.8235999999999901</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.8846551724137903</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.8846551724137903</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.9072368421052603</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.9072368421052603</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.7021739130434703</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.7021739130434703</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.1216071428571404</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.1216071428571404</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.8757446808510601</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.8757446808510601</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.3344210526315701</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.3344210526315701</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.8617857142857099</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.8235999999999901</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.8235999999999901</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.8846551724137903</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.8846551724137903</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.9072368421052603</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.9072368421052603</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.7021739130434703</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.7021739130434703</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.7923684210526298</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.7923684210526298</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.3185714285714196</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.3185714285714196</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9319999999999897</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D390-3549-AEC6-9D13C2564735}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="830193167"/>
+        <c:axId val="830304911"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="830193167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="830304911"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="830304911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="830193167"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>forceStaircaseWRONG!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>meanForce1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>forceStaircaseWRONG!$E$2:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>-1.213125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.1456249999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.0131250000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.73428571428571399</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.59680851063829699</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.57884210526315705</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.60482142857142795</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.578125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.78293103448275803</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.78293103448275803</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.78942857142857104</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.78942857142857104</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.55469565217391203</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.55469565217391203</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.60539473684210499</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.60539473684210499</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.59680851063829699</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.59680851063829699</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.57884210526315705</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.57884210526315705</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.60482142857142795</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.68613333333333304</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.68613333333333304</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.78293103448275803</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.78293103448275803</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.73723684210526297</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.73723684210526297</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.55469565217391203</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.55469565217391203</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.73428571428571399</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.73428571428571399</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.59680851063829699</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.59680851063829699</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.57884210526315705</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.57884210526315705</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.60482142857142795</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.68613333333333304</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.68613333333333304</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.78293103448275803</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.78293103448275803</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.73723684210526297</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.73723684210526297</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.55469565217391203</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.55469565217391203</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.60539473684210499</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.60539473684210499</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.49</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.49333333333333301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4A93-9E43-8F1D-891D0EE6DF67}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1062905391"/>
+        <c:axId val="1063052575"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1062905391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1063052575"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1063052575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1062905391"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.9244874994831214E-2"/>
+          <c:y val="0.16624919927082912"/>
+          <c:w val="0.88958177353640089"/>
+          <c:h val="0.72976877235644666"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>trial!$Q$34:$R$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>98.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>103.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-76B3-334D-9C20-111F29B6257B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="867211807"/>
+        <c:axId val="928100447"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="867211807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="928100447"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="928100447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="867211807"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -991,7 +2182,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>forceStaircase!$B$1</c:f>
+              <c:f>forceStaircase_updated!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1026,7 +2217,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>forceStaircase!$B$2:$B$51</c:f>
+              <c:f>forceStaircase_updated!$B$2:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -1186,7 +2377,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-15B7-F944-AC5E-7D630FAE0EB2}"/>
+              <c16:uniqueId val="{00000000-2E91-4846-B061-5B06BDAF0D66}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1418,11 +2609,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>forceStaircase!$C$1</c:f>
+              <c:f>forceStaircase_updated!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>meanForce</c:v>
+                  <c:v>testCommandMM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1453,159 +2644,159 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>forceStaircase!$C$2:$C$51</c:f>
+              <c:f>forceStaircase_updated!$C$2:$C$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>8.7906249999999897</c:v>
+                  <c:v>15.87</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.5106249999999992</c:v>
+                  <c:v>15.22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.1368749999999999</c:v>
+                  <c:v>14.57</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.5818750000000001</c:v>
+                  <c:v>13.91</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.1216071428571404</c:v>
+                  <c:v>13.26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.8757446808510601</c:v>
+                  <c:v>12.61</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.3344210526315701</c:v>
+                  <c:v>11.96</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.8617857142857099</c:v>
+                  <c:v>11.3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.6312499999999996</c:v>
+                  <c:v>10.65</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.8846551724137903</c:v>
+                  <c:v>11.74</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.8846551724137903</c:v>
+                  <c:v>11.74</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.8205714285714203</c:v>
+                  <c:v>11.09</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.8205714285714203</c:v>
+                  <c:v>11.09</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.7021739130434703</c:v>
+                  <c:v>12.17</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.7021739130434703</c:v>
+                  <c:v>12.17</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.7923684210526298</c:v>
+                  <c:v>11.52</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.7923684210526298</c:v>
+                  <c:v>11.52</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.8757446808510601</c:v>
+                  <c:v>12.61</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.8757446808510601</c:v>
+                  <c:v>12.61</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.3344210526315701</c:v>
+                  <c:v>11.96</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.3344210526315701</c:v>
+                  <c:v>11.96</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.8617857142857099</c:v>
+                  <c:v>11.3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.8235999999999901</c:v>
+                  <c:v>12.39</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.8235999999999901</c:v>
+                  <c:v>12.39</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.8846551724137903</c:v>
+                  <c:v>11.74</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.8846551724137903</c:v>
+                  <c:v>11.74</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.9072368421052603</c:v>
+                  <c:v>12.83</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.9072368421052603</c:v>
+                  <c:v>12.83</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.7021739130434703</c:v>
+                  <c:v>12.17</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6.7021739130434703</c:v>
+                  <c:v>12.17</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.1216071428571404</c:v>
+                  <c:v>13.26</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7.1216071428571404</c:v>
+                  <c:v>13.26</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6.8757446808510601</c:v>
+                  <c:v>12.61</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.8757446808510601</c:v>
+                  <c:v>12.61</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.3344210526315701</c:v>
+                  <c:v>11.96</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.3344210526315701</c:v>
+                  <c:v>11.96</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.8617857142857099</c:v>
+                  <c:v>11.3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.8235999999999901</c:v>
+                  <c:v>12.39</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6.8235999999999901</c:v>
+                  <c:v>12.39</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5.8846551724137903</c:v>
+                  <c:v>11.74</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5.8846551724137903</c:v>
+                  <c:v>11.74</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>6.9072368421052603</c:v>
+                  <c:v>12.83</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>6.9072368421052603</c:v>
+                  <c:v>12.83</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6.7021739130434703</c:v>
+                  <c:v>12.17</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6.7021739130434703</c:v>
+                  <c:v>12.17</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5.7923684210526298</c:v>
+                  <c:v>11.52</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5.7923684210526298</c:v>
+                  <c:v>11.52</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5.3185714285714196</c:v>
+                  <c:v>10.87</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5.3185714285714196</c:v>
+                  <c:v>10.87</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.9319999999999897</c:v>
+                  <c:v>10.220000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1613,7 +2804,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D390-3549-AEC6-9D13C2564735}"/>
+              <c16:uniqueId val="{00000000-126B-4948-B21F-97FC7FD32B31}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1843,11 +3034,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>forceStaircase!$E$1</c:f>
+              <c:f>forceStaircase_updated!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>meanForce1</c:v>
+                  <c:v>stdevForce</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1878,159 +3069,159 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>forceStaircase!$E$2:$E$51</c:f>
+              <c:f>forceStaircase_updated!$E$2:$E$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>-1.213125</c:v>
+                  <c:v>0.502275680652567</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.1456249999999999</c:v>
+                  <c:v>0.170824059707642</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.05</c:v>
+                  <c:v>0.106226100253186</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.0131250000000001</c:v>
+                  <c:v>5.7902801098047303E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.73428571428571399</c:v>
+                  <c:v>3.5377331097124202E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.59680851063829699</c:v>
+                  <c:v>9.09945053286184E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.57884210526315705</c:v>
+                  <c:v>2.3178543913696999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.60482142857142795</c:v>
+                  <c:v>6.1086459674428301E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.578125</c:v>
+                  <c:v>4.3571062644833299E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.78293103448275803</c:v>
+                  <c:v>8.5468642722865806E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.78293103448275803</c:v>
+                  <c:v>8.6116200566443799E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.78942857142857104</c:v>
+                  <c:v>4.6542692468552201E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.78942857142857104</c:v>
+                  <c:v>7.76603016281779E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.55469565217391203</c:v>
+                  <c:v>7.3072262559438994E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.55469565217391203</c:v>
+                  <c:v>7.3647810558087806E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.60539473684210499</c:v>
+                  <c:v>8.3399973354645496E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.60539473684210499</c:v>
+                  <c:v>7.6837490849194001E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.59680851063829699</c:v>
+                  <c:v>0.105943381105192</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.59680851063829699</c:v>
+                  <c:v>9.2173748974423195E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.57884210526315705</c:v>
+                  <c:v>9.9991110716014103E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.57884210526315705</c:v>
+                  <c:v>0.119899958298574</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.60482142857142795</c:v>
+                  <c:v>3.59999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.68613333333333304</c:v>
+                  <c:v>0.106424725614972</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.68613333333333304</c:v>
+                  <c:v>5.8840651102976697E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.78293103448275803</c:v>
+                  <c:v>6.3020278923181294E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.78293103448275803</c:v>
+                  <c:v>4.4899888641287598E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.73723684210526297</c:v>
+                  <c:v>6.9455021416741203E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.73723684210526297</c:v>
+                  <c:v>3.2000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.55469565217391203</c:v>
+                  <c:v>0.14204224723651701</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.55469565217391203</c:v>
+                  <c:v>0.150928975202098</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.73428571428571399</c:v>
+                  <c:v>5.9179576056459002E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.73428571428571399</c:v>
+                  <c:v>9.0994505328618594E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.59680851063829699</c:v>
+                  <c:v>0.103057839912094</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.59680851063829699</c:v>
+                  <c:v>6.4606343278634196E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.57884210526315705</c:v>
+                  <c:v>7.2498275841567303E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-0.57884210526315705</c:v>
+                  <c:v>4.2405450383437897E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.60482142857142795</c:v>
+                  <c:v>6.6211781428987398E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-0.68613333333333304</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-0.68613333333333304</c:v>
+                  <c:v>2.0603150145508502E-2</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="0.00E+00">
+                  <c:v>2.6645352591003702E-15</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.78293103448275803</c:v>
+                  <c:v>5.1613951602255598E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-0.78293103448275803</c:v>
+                  <c:v>7.6837490849194001E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.73723684210526297</c:v>
+                  <c:v>2.2449944320643601E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.73723684210526297</c:v>
+                  <c:v>9.2173748974423403E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-0.55469565217391203</c:v>
+                  <c:v>8.86691728969108E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-0.55469565217391203</c:v>
+                  <c:v>8.2894080436594506E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-0.60539473684210499</c:v>
+                  <c:v>7.6837490849194001E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-0.60539473684210499</c:v>
+                  <c:v>4.6542692468552201E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-0.49</c:v>
+                  <c:v>7.1261646221668196E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-0.49</c:v>
+                  <c:v>2.3178543913696999E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-0.49333333333333301</c:v>
+                  <c:v>7.9598994968529402E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2038,7 +3229,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4A93-9E43-8F1D-891D0EE6DF67}"/>
+              <c16:uniqueId val="{00000000-9FB4-F443-99E7-62D96AA82961}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2340,7 +3531,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-76B3-334D-9C20-111F29B6257B}"/>
+              <c16:uniqueId val="{00000000-B208-D147-AF1F-8995AAA03E84}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2515,7 +3706,1429 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>forceStaircase_updated!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>meanForce</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>forceStaircase_updated!$D$2:$D$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>8.7906249999999897</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.5106249999999992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1368749999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5818750000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.2313333333333301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.09</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.33642857142857</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.9246666666666599</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.6312499999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.4986666666666597</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.2519999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.9073333333333302</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.9878571428571403</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.8406666666666602</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.476</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.1033333333333299</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.2160000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.3339999999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.4219999999999899</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.1253333333333302</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.9619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.4020000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.4273333333333298</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.8866666666666596</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.0613333333333301</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.1020000000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.3559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.2259999999999902</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.6180000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.5106666666666602</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.82666666666666</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.4399999999999897</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.0492857142857099</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.9721428571428499</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.6020000000000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.4313333333333302</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.9539999999999997</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.21571428571428</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.2099999999999902</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.3059999999999903</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.3059999999999903</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.2960000000000003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.5119999999999996</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.7933333333333303</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.75</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.2460000000000004</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.9073333333333302</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.4913333333333298</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.3664285714285702</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9319999999999897</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1352-4A41-B66F-9CBB434F2674}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="830193167"/>
+        <c:axId val="830304911"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="830193167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="830304911"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="830304911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="830193167"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>forceStaircase_updated!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>meanPos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>forceStaircase_updated!$F$2:$F$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>13.10125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.838125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.52375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.94375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.4786666666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.3693333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.59214285714285</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0126666666666608</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.6125000000000007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.4033333333333307</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.2880000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.0079999999999991</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.0099999999999891</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.9773333333333305</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.7520000000000007</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.0839999999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.1866666666666603</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.9813333333333301</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.9826666666666597</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5533333333333292</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.4293333333333305</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.86933333333333</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.9426666666666605</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.9186666666666596</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.7319999999999993</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.6239999999999899</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10.608666666666601</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.3699999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.5860000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.6873333333333296</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11.4493333333333</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10.7606666666666</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10.3035714285714</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.7146666666666608</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.5913333333333295</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.9753333333333298</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10.154999999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10.1986666666666</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.4326666666666608</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.3659999999999997</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10.36</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10.592666666666601</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10.030666666666599</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.7385714285714293</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.3533333333333299</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.1739999999999995</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8.7166666666666597</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8.6464285714285705</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8.1419999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-646F-B24D-876B-931DA9D2F3EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="204627648"/>
+        <c:axId val="206538688"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="204627648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="206538688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="206538688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="204627648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>staircase actuator command (fixed) - 1 actuator</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>forceStaircaseWRONG!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testCommand</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>forceStaircaseWRONG!$B$2:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-15B7-F944-AC5E-7D630FAE0EB2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="972298207"/>
+        <c:axId val="915957391"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="972298207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="915957391"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="915957391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="120"/>
+          <c:min val="90"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="972298207"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2755,6 +5368,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -3258,8 +5991,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3761,7 +6494,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4264,8 +6997,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4767,8 +7500,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5270,8 +8003,3026 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5851,6 +11602,237 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4264ECD8-F370-3945-A611-791438FAF8FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>375810</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>120360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>73782</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>18760</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38F7E5AC-CBC4-7A48-A986-19835901C9F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>521741</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>51847</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>141063</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>156542</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E65E4C7A-B2F1-5A47-8307-22E02DC0B5EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>482279</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>109570</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>116520</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4BBBA60-94B6-7846-9AF4-AE7C0658C6E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>503810</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>104694</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCFB4CAA-6E5F-B742-B5BD-011B972E37C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>92010</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>70109</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>549469</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1166</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{379346D5-48A5-7724-9662-5123E32FC4E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6002,17 +11984,21 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="trial_2024-01-30_20-47" connectionId="2" xr16:uid="{07978A7D-3607-0841-BC9F-EED40D64B000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="trial_2024-01-30_20-47" connectionId="3" xr16:uid="{07978A7D-3607-0841-BC9F-EED40D64B000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="forceOfStairCase_onePoke_2024-01-30_20-47" connectionId="1" xr16:uid="{EDC64C12-E75F-1844-A114-7D2120A3FCE5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="force_AND_Position_OfStairCase_onePoke_2024-01-30_20-47" connectionId="1" xr16:uid="{6C11C013-AEE4-6346-8022-9F6D7284AA61}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="forceOfStairCase_onePoke_2024-01-30_20-47" connectionId="2" xr16:uid="{EDC64C12-E75F-1844-A114-7D2120A3FCE5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6050,7 +12036,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -6156,7 +12142,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6298,7 +12284,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7971,11 +13957,2088 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27FCDAB8-1EB0-AC4A-A96F-F50286156543}">
+  <dimension ref="A1:P51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="196" zoomScaleNormal="197" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>120</v>
+      </c>
+      <c r="C2">
+        <v>15.87</v>
+      </c>
+      <c r="D2">
+        <v>8.7906249999999897</v>
+      </c>
+      <c r="E2">
+        <v>0.502275680652567</v>
+      </c>
+      <c r="F2">
+        <v>13.10125</v>
+      </c>
+      <c r="G2">
+        <v>0.347380824888191</v>
+      </c>
+      <c r="H2">
+        <v>-1.213125</v>
+      </c>
+      <c r="I2">
+        <v>0.101717669925141</v>
+      </c>
+      <c r="J2">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="K2">
+        <v>4.8412291827592702E-3</v>
+      </c>
+      <c r="L2">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>117</v>
+      </c>
+      <c r="C3">
+        <v>15.22</v>
+      </c>
+      <c r="D3">
+        <v>8.5106249999999992</v>
+      </c>
+      <c r="E3">
+        <v>0.170824059707642</v>
+      </c>
+      <c r="F3">
+        <v>12.838125</v>
+      </c>
+      <c r="G3">
+        <v>4.24586195606967E-2</v>
+      </c>
+      <c r="H3">
+        <v>-1.1456249999999999</v>
+      </c>
+      <c r="I3">
+        <v>2.1785531322416701E-2</v>
+      </c>
+      <c r="J3">
+        <v>2.1250000000000002E-2</v>
+      </c>
+      <c r="K3">
+        <v>1.2686114456365199E-2</v>
+      </c>
+      <c r="L3">
+        <v>20</v>
+      </c>
+      <c r="O3">
+        <f>O2+1</f>
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>114</v>
+      </c>
+      <c r="C4">
+        <v>14.57</v>
+      </c>
+      <c r="D4">
+        <v>8.1368749999999999</v>
+      </c>
+      <c r="E4">
+        <v>0.106226100253186</v>
+      </c>
+      <c r="F4">
+        <v>12.52375</v>
+      </c>
+      <c r="G4">
+        <v>2.1758618981911601E-2</v>
+      </c>
+      <c r="H4">
+        <v>-1.05</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>2.1874999999999999E-2</v>
+      </c>
+      <c r="K4">
+        <v>7.2618437741389001E-3</v>
+      </c>
+      <c r="L4">
+        <v>20</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O17" si="0">O3+1</f>
+        <v>3</v>
+      </c>
+      <c r="P4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>111</v>
+      </c>
+      <c r="C5">
+        <v>13.91</v>
+      </c>
+      <c r="D5">
+        <v>7.5818750000000001</v>
+      </c>
+      <c r="E5">
+        <v>5.7902801098047303E-2</v>
+      </c>
+      <c r="F5">
+        <v>11.94375</v>
+      </c>
+      <c r="G5">
+        <v>2.42061459137962E-2</v>
+      </c>
+      <c r="H5">
+        <v>-1.0131250000000001</v>
+      </c>
+      <c r="I5">
+        <v>7.3969482727676297E-2</v>
+      </c>
+      <c r="J5">
+        <v>0.02</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>20</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="P5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>108</v>
+      </c>
+      <c r="C6">
+        <v>13.26</v>
+      </c>
+      <c r="D6">
+        <v>7.2313333333333301</v>
+      </c>
+      <c r="E6">
+        <v>3.5377331097124202E-2</v>
+      </c>
+      <c r="F6">
+        <v>11.4786666666666</v>
+      </c>
+      <c r="G6">
+        <v>2.7776888874665999E-2</v>
+      </c>
+      <c r="H6">
+        <v>-0.95399999999999996</v>
+      </c>
+      <c r="I6">
+        <v>0.104613574644976</v>
+      </c>
+      <c r="J6">
+        <v>1.8666666666666599E-2</v>
+      </c>
+      <c r="K6">
+        <v>4.9888765156985799E-3</v>
+      </c>
+      <c r="L6">
+        <v>19</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="P6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>105</v>
+      </c>
+      <c r="C7">
+        <v>12.61</v>
+      </c>
+      <c r="D7">
+        <v>7.09</v>
+      </c>
+      <c r="E7">
+        <v>9.09945053286184E-2</v>
+      </c>
+      <c r="F7">
+        <v>10.3693333333333</v>
+      </c>
+      <c r="G7">
+        <v>1.48174071805952E-2</v>
+      </c>
+      <c r="H7">
+        <v>-0.69999999999999896</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1.11022302462515E-16</v>
+      </c>
+      <c r="J7">
+        <v>1.8666666666666599E-2</v>
+      </c>
+      <c r="K7">
+        <v>4.9888765156985799E-3</v>
+      </c>
+      <c r="L7">
+        <v>19</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="P7">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>102</v>
+      </c>
+      <c r="C8">
+        <v>11.96</v>
+      </c>
+      <c r="D8">
+        <v>6.33642857142857</v>
+      </c>
+      <c r="E8">
+        <v>2.3178543913696999E-2</v>
+      </c>
+      <c r="F8">
+        <v>9.59214285714285</v>
+      </c>
+      <c r="G8">
+        <v>1.6978377605721E-2</v>
+      </c>
+      <c r="H8">
+        <v>-0.71999999999999897</v>
+      </c>
+      <c r="I8">
+        <v>4.8697315854455199E-2</v>
+      </c>
+      <c r="J8">
+        <v>1.5714285714285701E-2</v>
+      </c>
+      <c r="K8">
+        <v>8.2065180664828898E-3</v>
+      </c>
+      <c r="L8">
+        <v>18</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="P8">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>99</v>
+      </c>
+      <c r="C9">
+        <v>11.3</v>
+      </c>
+      <c r="D9">
+        <v>5.9246666666666599</v>
+      </c>
+      <c r="E9">
+        <v>6.1086459674428301E-2</v>
+      </c>
+      <c r="F9">
+        <v>9.0126666666666608</v>
+      </c>
+      <c r="G9">
+        <v>2.26470503352839E-2</v>
+      </c>
+      <c r="H9">
+        <v>-0.80733333333333301</v>
+      </c>
+      <c r="I9">
+        <v>6.4855394704081595E-2</v>
+      </c>
+      <c r="J9">
+        <v>0.02</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>19</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="P9">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>96</v>
+      </c>
+      <c r="C10">
+        <v>10.65</v>
+      </c>
+      <c r="D10">
+        <v>5.6312499999999996</v>
+      </c>
+      <c r="E10">
+        <v>4.3571062644833299E-2</v>
+      </c>
+      <c r="F10">
+        <v>8.6125000000000007</v>
+      </c>
+      <c r="G10">
+        <v>2.9047375096555399E-2</v>
+      </c>
+      <c r="H10">
+        <v>-0.578125</v>
+      </c>
+      <c r="I10">
+        <v>9.7289436091489295E-2</v>
+      </c>
+      <c r="J10">
+        <v>2.0625000000000001E-2</v>
+      </c>
+      <c r="K10">
+        <v>1.43478003540612E-2</v>
+      </c>
+      <c r="L10">
+        <v>20</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="P10">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>101</v>
+      </c>
+      <c r="C11">
+        <v>11.74</v>
+      </c>
+      <c r="D11">
+        <v>6.4986666666666597</v>
+      </c>
+      <c r="E11">
+        <v>8.5468642722865806E-2</v>
+      </c>
+      <c r="F11">
+        <v>9.4033333333333307</v>
+      </c>
+      <c r="G11">
+        <v>3.5714920629276802E-2</v>
+      </c>
+      <c r="H11">
+        <v>-0.77199999999999902</v>
+      </c>
+      <c r="I11">
+        <v>6.7349832961930894E-2</v>
+      </c>
+      <c r="J11">
+        <v>1.46666666666666E-2</v>
+      </c>
+      <c r="K11">
+        <v>8.8443327742810593E-3</v>
+      </c>
+      <c r="L11">
+        <v>19</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="P11">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>101</v>
+      </c>
+      <c r="C12">
+        <v>11.74</v>
+      </c>
+      <c r="D12">
+        <v>6.2519999999999998</v>
+      </c>
+      <c r="E12">
+        <v>8.6116200566443799E-2</v>
+      </c>
+      <c r="F12">
+        <v>9.2880000000000003</v>
+      </c>
+      <c r="G12">
+        <v>3.14536696322281E-2</v>
+      </c>
+      <c r="H12">
+        <v>-0.83133333333333304</v>
+      </c>
+      <c r="I12">
+        <v>7.77059986244448E-2</v>
+      </c>
+      <c r="J12">
+        <v>1.7333333333333301E-2</v>
+      </c>
+      <c r="K12">
+        <v>6.7986926847903801E-3</v>
+      </c>
+      <c r="L12">
+        <v>19</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="P12">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>98</v>
+      </c>
+      <c r="C13">
+        <v>11.09</v>
+      </c>
+      <c r="D13">
+        <v>5.9073333333333302</v>
+      </c>
+      <c r="E13">
+        <v>4.6542692468552201E-2</v>
+      </c>
+      <c r="F13">
+        <v>9.0079999999999991</v>
+      </c>
+      <c r="G13">
+        <v>2.5871477215909398E-2</v>
+      </c>
+      <c r="H13">
+        <v>-0.747999999999999</v>
+      </c>
+      <c r="I13">
+        <v>4.48998886412873E-2</v>
+      </c>
+      <c r="J13">
+        <v>1.8666666666666599E-2</v>
+      </c>
+      <c r="K13">
+        <v>4.9888765156985799E-3</v>
+      </c>
+      <c r="L13">
+        <v>19</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="P13">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>98</v>
+      </c>
+      <c r="C14">
+        <v>11.09</v>
+      </c>
+      <c r="D14">
+        <v>5.9878571428571403</v>
+      </c>
+      <c r="E14">
+        <v>7.76603016281779E-2</v>
+      </c>
+      <c r="F14">
+        <v>9.0099999999999891</v>
+      </c>
+      <c r="G14">
+        <v>3.6839419880650003E-2</v>
+      </c>
+      <c r="H14">
+        <v>-0.86499999999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.10293895555827499</v>
+      </c>
+      <c r="J14">
+        <v>1.7857142857142801E-2</v>
+      </c>
+      <c r="K14">
+        <v>1.205853072581E-2</v>
+      </c>
+      <c r="L14">
+        <v>18</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="P14">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>103</v>
+      </c>
+      <c r="C15">
+        <v>12.17</v>
+      </c>
+      <c r="D15">
+        <v>6.8406666666666602</v>
+      </c>
+      <c r="E15">
+        <v>7.3072262559438994E-2</v>
+      </c>
+      <c r="F15">
+        <v>9.9773333333333305</v>
+      </c>
+      <c r="G15">
+        <v>2.0154955277107801E-2</v>
+      </c>
+      <c r="H15">
+        <v>-0.89066666666666605</v>
+      </c>
+      <c r="I15">
+        <v>0.10109181745104499</v>
+      </c>
+      <c r="J15">
+        <v>1.53333333333333E-2</v>
+      </c>
+      <c r="K15">
+        <v>1.7461067804945E-2</v>
+      </c>
+      <c r="L15">
+        <v>19</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="P15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>103</v>
+      </c>
+      <c r="C16">
+        <v>12.17</v>
+      </c>
+      <c r="D16">
+        <v>6.476</v>
+      </c>
+      <c r="E16">
+        <v>7.3647810558087806E-2</v>
+      </c>
+      <c r="F16">
+        <v>9.7520000000000007</v>
+      </c>
+      <c r="G16">
+        <v>2.7856776554367999E-2</v>
+      </c>
+      <c r="H16">
+        <v>-0.79599999999999904</v>
+      </c>
+      <c r="I16">
+        <v>2.2449944320643601E-2</v>
+      </c>
+      <c r="J16">
+        <v>1.59999999999999E-2</v>
+      </c>
+      <c r="K16">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="L16">
+        <v>19</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="P16">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>100</v>
+      </c>
+      <c r="C17">
+        <v>11.52</v>
+      </c>
+      <c r="D17">
+        <v>6.1033333333333299</v>
+      </c>
+      <c r="E17">
+        <v>8.3399973354645496E-2</v>
+      </c>
+      <c r="F17">
+        <v>9.0839999999999996</v>
+      </c>
+      <c r="G17">
+        <v>1.7048949136725802E-2</v>
+      </c>
+      <c r="H17">
+        <v>-0.75999999999999901</v>
+      </c>
+      <c r="I17">
+        <v>7.8230428862431797E-2</v>
+      </c>
+      <c r="J17">
+        <v>2.6666666666666601E-3</v>
+      </c>
+      <c r="K17">
+        <v>3.4149995932975102E-2</v>
+      </c>
+      <c r="L17">
+        <v>19</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="P17">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>100</v>
+      </c>
+      <c r="C18">
+        <v>11.52</v>
+      </c>
+      <c r="D18">
+        <v>6.2160000000000002</v>
+      </c>
+      <c r="E18">
+        <v>7.6837490849194001E-2</v>
+      </c>
+      <c r="F18">
+        <v>9.1866666666666603</v>
+      </c>
+      <c r="G18">
+        <v>2.3570226039551799E-2</v>
+      </c>
+      <c r="H18">
+        <v>-0.64999999999999902</v>
+      </c>
+      <c r="I18">
+        <v>6.7527772064536501E-2</v>
+      </c>
+      <c r="J18">
+        <v>1.59999999999999E-2</v>
+      </c>
+      <c r="K18">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="L18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>105</v>
+      </c>
+      <c r="C19">
+        <v>12.61</v>
+      </c>
+      <c r="D19">
+        <v>7.3339999999999996</v>
+      </c>
+      <c r="E19">
+        <v>0.105943381105192</v>
+      </c>
+      <c r="F19">
+        <v>9.9813333333333301</v>
+      </c>
+      <c r="G19">
+        <v>2.4184476196288999E-2</v>
+      </c>
+      <c r="H19">
+        <v>-0.60933333333333295</v>
+      </c>
+      <c r="I19">
+        <v>0.102141514032683</v>
+      </c>
+      <c r="J19">
+        <v>1.59999999999999E-2</v>
+      </c>
+      <c r="K19">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="L19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>105</v>
+      </c>
+      <c r="C20">
+        <v>12.61</v>
+      </c>
+      <c r="D20">
+        <v>7.4219999999999899</v>
+      </c>
+      <c r="E20">
+        <v>9.2173748974423195E-2</v>
+      </c>
+      <c r="F20">
+        <v>9.9826666666666597</v>
+      </c>
+      <c r="G20">
+        <v>2.0805982045769399E-2</v>
+      </c>
+      <c r="H20">
+        <v>-0.50466666666666604</v>
+      </c>
+      <c r="I20">
+        <v>9.2798467420295003E-2</v>
+      </c>
+      <c r="J20">
+        <v>1.8666666666666599E-2</v>
+      </c>
+      <c r="K20">
+        <v>4.9888765156985799E-3</v>
+      </c>
+      <c r="L20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>102</v>
+      </c>
+      <c r="C21">
+        <v>11.96</v>
+      </c>
+      <c r="D21">
+        <v>7.1253333333333302</v>
+      </c>
+      <c r="E21">
+        <v>9.9991110716014103E-2</v>
+      </c>
+      <c r="F21">
+        <v>9.5533333333333292</v>
+      </c>
+      <c r="G21">
+        <v>0.119759017289815</v>
+      </c>
+      <c r="H21">
+        <v>-0.47599999999999998</v>
+      </c>
+      <c r="I21">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="J21">
+        <v>1.59999999999999E-2</v>
+      </c>
+      <c r="K21">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="L21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>102</v>
+      </c>
+      <c r="C22">
+        <v>11.96</v>
+      </c>
+      <c r="D22">
+        <v>6.9619999999999997</v>
+      </c>
+      <c r="E22">
+        <v>0.119899958298574</v>
+      </c>
+      <c r="F22">
+        <v>9.4293333333333305</v>
+      </c>
+      <c r="G22">
+        <v>5.1570878948836101E-2</v>
+      </c>
+      <c r="H22">
+        <v>-0.51133333333333297</v>
+      </c>
+      <c r="I22">
+        <v>8.6707682602075203E-2</v>
+      </c>
+      <c r="J22">
+        <v>1.59999999999999E-2</v>
+      </c>
+      <c r="K22">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="L22">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>99</v>
+      </c>
+      <c r="C23">
+        <v>11.3</v>
+      </c>
+      <c r="D23">
+        <v>6.4020000000000001</v>
+      </c>
+      <c r="E23">
+        <v>3.59999999999999E-2</v>
+      </c>
+      <c r="F23">
+        <v>8.86933333333333</v>
+      </c>
+      <c r="G23">
+        <v>3.1510139461590897E-2</v>
+      </c>
+      <c r="H23">
+        <v>-0.46333333333333299</v>
+      </c>
+      <c r="I23">
+        <v>6.7098600747125994E-2</v>
+      </c>
+      <c r="J23">
+        <v>1.59999999999999E-2</v>
+      </c>
+      <c r="K23">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="L23">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>104</v>
+      </c>
+      <c r="C24">
+        <v>12.39</v>
+      </c>
+      <c r="D24">
+        <v>7.4273333333333298</v>
+      </c>
+      <c r="E24">
+        <v>0.106424725614972</v>
+      </c>
+      <c r="F24">
+        <v>9.9426666666666605</v>
+      </c>
+      <c r="G24">
+        <v>2.0154955277107998E-2</v>
+      </c>
+      <c r="H24">
+        <v>-0.661333333333333</v>
+      </c>
+      <c r="I24">
+        <v>6.0317677526759997E-2</v>
+      </c>
+      <c r="J24">
+        <v>1.2E-2</v>
+      </c>
+      <c r="K24">
+        <v>9.7979589711327097E-3</v>
+      </c>
+      <c r="L24">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>104</v>
+      </c>
+      <c r="C25">
+        <v>12.39</v>
+      </c>
+      <c r="D25">
+        <v>6.8866666666666596</v>
+      </c>
+      <c r="E25">
+        <v>5.8840651102976697E-2</v>
+      </c>
+      <c r="F25">
+        <v>9.9186666666666596</v>
+      </c>
+      <c r="G25">
+        <v>3.3038697848969997E-2</v>
+      </c>
+      <c r="H25">
+        <v>-0.81399999999999895</v>
+      </c>
+      <c r="I25">
+        <v>6.1188234163113399E-2</v>
+      </c>
+      <c r="J25">
+        <v>1.3333333333333299E-2</v>
+      </c>
+      <c r="K25">
+        <v>9.4280904158206297E-3</v>
+      </c>
+      <c r="L25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>101</v>
+      </c>
+      <c r="C26">
+        <v>11.74</v>
+      </c>
+      <c r="D26">
+        <v>6.0613333333333301</v>
+      </c>
+      <c r="E26">
+        <v>6.3020278923181294E-2</v>
+      </c>
+      <c r="F26">
+        <v>9.7319999999999993</v>
+      </c>
+      <c r="G26">
+        <v>3.5440090293338798E-2</v>
+      </c>
+      <c r="H26">
+        <v>-1.03866666666666</v>
+      </c>
+      <c r="I26">
+        <v>4.2405450383438001E-2</v>
+      </c>
+      <c r="J26">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="K26">
+        <v>1.1661903789690601E-2</v>
+      </c>
+      <c r="L26">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>101</v>
+      </c>
+      <c r="C27">
+        <v>11.74</v>
+      </c>
+      <c r="D27">
+        <v>6.1020000000000003</v>
+      </c>
+      <c r="E27">
+        <v>4.4899888641287598E-2</v>
+      </c>
+      <c r="F27">
+        <v>9.6239999999999899</v>
+      </c>
+      <c r="G27">
+        <v>1.7813852287849902E-2</v>
+      </c>
+      <c r="H27">
+        <v>-0.91200000000000003</v>
+      </c>
+      <c r="I27">
+        <v>0.117371206008969</v>
+      </c>
+      <c r="J27">
+        <v>2.8666666666666601E-2</v>
+      </c>
+      <c r="K27">
+        <v>4.36450328088877E-2</v>
+      </c>
+      <c r="L27">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>106</v>
+      </c>
+      <c r="C28">
+        <v>12.83</v>
+      </c>
+      <c r="D28">
+        <v>7.3559999999999999</v>
+      </c>
+      <c r="E28">
+        <v>6.9455021416741203E-2</v>
+      </c>
+      <c r="F28">
+        <v>10.608666666666601</v>
+      </c>
+      <c r="G28">
+        <v>3.4227993741316097E-2</v>
+      </c>
+      <c r="H28">
+        <v>-0.83133333333333304</v>
+      </c>
+      <c r="I28">
+        <v>7.77059986244448E-2</v>
+      </c>
+      <c r="J28">
+        <v>1.93333333333333E-2</v>
+      </c>
+      <c r="K28">
+        <v>1.06249183003394E-2</v>
+      </c>
+      <c r="L28">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>106</v>
+      </c>
+      <c r="C29">
+        <v>12.83</v>
+      </c>
+      <c r="D29">
+        <v>7.2259999999999902</v>
+      </c>
+      <c r="E29">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F29">
+        <v>10.3699999999999</v>
+      </c>
+      <c r="G29">
+        <v>4.3817804600413499E-2</v>
+      </c>
+      <c r="H29">
+        <v>-1.0333333333333301</v>
+      </c>
+      <c r="I29">
+        <v>4.5558265502052997E-2</v>
+      </c>
+      <c r="J29">
+        <v>1.46666666666666E-2</v>
+      </c>
+      <c r="K29">
+        <v>8.8443327742810593E-3</v>
+      </c>
+      <c r="L29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>103</v>
+      </c>
+      <c r="C30">
+        <v>12.17</v>
+      </c>
+      <c r="D30">
+        <v>7.6180000000000003</v>
+      </c>
+      <c r="E30">
+        <v>0.14204224723651701</v>
+      </c>
+      <c r="F30">
+        <v>9.5860000000000003</v>
+      </c>
+      <c r="G30">
+        <v>6.2801273872430202E-2</v>
+      </c>
+      <c r="H30">
+        <v>-0.33866666666666601</v>
+      </c>
+      <c r="I30">
+        <v>4.2405450383438001E-2</v>
+      </c>
+      <c r="J30">
+        <v>1.8666666666666599E-2</v>
+      </c>
+      <c r="K30">
+        <v>4.9888765156985799E-3</v>
+      </c>
+      <c r="L30">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>103</v>
+      </c>
+      <c r="C31">
+        <v>12.17</v>
+      </c>
+      <c r="D31">
+        <v>7.5106666666666602</v>
+      </c>
+      <c r="E31">
+        <v>0.150928975202098</v>
+      </c>
+      <c r="F31">
+        <v>9.6873333333333296</v>
+      </c>
+      <c r="G31">
+        <v>3.1930480039541298E-2</v>
+      </c>
+      <c r="H31">
+        <v>-0.24</v>
+      </c>
+      <c r="I31">
+        <v>0.124418648119966</v>
+      </c>
+      <c r="J31">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="K31">
+        <v>7.4833147735478799E-3</v>
+      </c>
+      <c r="L31">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>108</v>
+      </c>
+      <c r="C32">
+        <v>13.26</v>
+      </c>
+      <c r="D32">
+        <v>7.82666666666666</v>
+      </c>
+      <c r="E32">
+        <v>5.9179576056459002E-2</v>
+      </c>
+      <c r="F32">
+        <v>11.4493333333333</v>
+      </c>
+      <c r="G32">
+        <v>2.11239726903398E-2</v>
+      </c>
+      <c r="H32">
+        <v>-0.68866666666666598</v>
+      </c>
+      <c r="I32">
+        <v>4.2405450383437897E-2</v>
+      </c>
+      <c r="J32">
+        <v>1.7333333333333301E-2</v>
+      </c>
+      <c r="K32">
+        <v>6.7986926847903801E-3</v>
+      </c>
+      <c r="L32">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>108</v>
+      </c>
+      <c r="C33">
+        <v>13.26</v>
+      </c>
+      <c r="D33">
+        <v>7.4399999999999897</v>
+      </c>
+      <c r="E33">
+        <v>9.0994505328618594E-2</v>
+      </c>
+      <c r="F33">
+        <v>10.7606666666666</v>
+      </c>
+      <c r="G33">
+        <v>6.2339571880325101E-2</v>
+      </c>
+      <c r="H33">
+        <v>-0.712666666666666</v>
+      </c>
+      <c r="I33">
+        <v>6.2659574066715601E-2</v>
+      </c>
+      <c r="J33">
+        <v>0.02</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>105</v>
+      </c>
+      <c r="C34">
+        <v>12.61</v>
+      </c>
+      <c r="D34">
+        <v>7.0492857142857099</v>
+      </c>
+      <c r="E34">
+        <v>0.103057839912094</v>
+      </c>
+      <c r="F34">
+        <v>10.3035714285714</v>
+      </c>
+      <c r="G34">
+        <v>1.2876968840942801E-2</v>
+      </c>
+      <c r="H34">
+        <v>-0.621428571428571</v>
+      </c>
+      <c r="I34">
+        <v>8.8467681173662993E-2</v>
+      </c>
+      <c r="J34">
+        <v>1.7142857142857099E-2</v>
+      </c>
+      <c r="K34">
+        <v>6.9985421222376496E-3</v>
+      </c>
+      <c r="L34">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>105</v>
+      </c>
+      <c r="C35">
+        <v>12.61</v>
+      </c>
+      <c r="D35">
+        <v>6.9721428571428499</v>
+      </c>
+      <c r="E35">
+        <v>6.4606343278634196E-2</v>
+      </c>
+      <c r="F35">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="G35">
+        <v>7.5592894601847196E-3</v>
+      </c>
+      <c r="H35">
+        <v>-0.77714285714285702</v>
+      </c>
+      <c r="I35">
+        <v>7.4969381505153795E-2</v>
+      </c>
+      <c r="J35">
+        <v>1.99999999999999E-2</v>
+      </c>
+      <c r="K35" s="3">
+        <v>3.46944695195361E-18</v>
+      </c>
+      <c r="L35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>102</v>
+      </c>
+      <c r="C36">
+        <v>11.96</v>
+      </c>
+      <c r="D36">
+        <v>6.6020000000000003</v>
+      </c>
+      <c r="E36">
+        <v>7.2498275841567303E-2</v>
+      </c>
+      <c r="F36">
+        <v>9.7146666666666608</v>
+      </c>
+      <c r="G36">
+        <v>3.1804961178337803E-2</v>
+      </c>
+      <c r="H36">
+        <v>-0.64866666666666595</v>
+      </c>
+      <c r="I36">
+        <v>9.3442792956736603E-2</v>
+      </c>
+      <c r="J36">
+        <v>1.3333333333333299E-2</v>
+      </c>
+      <c r="K36">
+        <v>9.4280904158206297E-3</v>
+      </c>
+      <c r="L36">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>102</v>
+      </c>
+      <c r="C37">
+        <v>11.96</v>
+      </c>
+      <c r="D37">
+        <v>6.4313333333333302</v>
+      </c>
+      <c r="E37">
+        <v>4.2405450383437897E-2</v>
+      </c>
+      <c r="F37">
+        <v>9.5913333333333295</v>
+      </c>
+      <c r="G37">
+        <v>6.1521450640316402E-2</v>
+      </c>
+      <c r="H37">
+        <v>-0.77266666666666595</v>
+      </c>
+      <c r="I37">
+        <v>5.6975628317924E-2</v>
+      </c>
+      <c r="J37">
+        <v>1.8666666666666599E-2</v>
+      </c>
+      <c r="K37">
+        <v>4.9888765156985799E-3</v>
+      </c>
+      <c r="L37">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>99</v>
+      </c>
+      <c r="C38">
+        <v>11.3</v>
+      </c>
+      <c r="D38">
+        <v>5.9539999999999997</v>
+      </c>
+      <c r="E38">
+        <v>6.6211781428987398E-2</v>
+      </c>
+      <c r="F38">
+        <v>8.9753333333333298</v>
+      </c>
+      <c r="G38">
+        <v>3.8964371189873198E-2</v>
+      </c>
+      <c r="H38">
+        <v>-0.64799999999999902</v>
+      </c>
+      <c r="I38">
+        <v>0.103999999999999</v>
+      </c>
+      <c r="J38">
+        <v>1.7333333333333301E-2</v>
+      </c>
+      <c r="K38">
+        <v>6.7986926847903801E-3</v>
+      </c>
+      <c r="L38">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>104</v>
+      </c>
+      <c r="C39">
+        <v>12.39</v>
+      </c>
+      <c r="D39">
+        <v>7.21571428571428</v>
+      </c>
+      <c r="E39">
+        <v>2.0603150145508502E-2</v>
+      </c>
+      <c r="F39">
+        <v>10.154999999999999</v>
+      </c>
+      <c r="G39">
+        <v>1.4015297764534401E-2</v>
+      </c>
+      <c r="H39">
+        <v>-0.7</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>1.5714285714285701E-2</v>
+      </c>
+      <c r="K39">
+        <v>8.2065180664828898E-3</v>
+      </c>
+      <c r="L39">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>104</v>
+      </c>
+      <c r="C40">
+        <v>12.39</v>
+      </c>
+      <c r="D40">
+        <v>7.2099999999999902</v>
+      </c>
+      <c r="E40" s="3">
+        <v>2.6645352591003702E-15</v>
+      </c>
+      <c r="F40">
+        <v>10.1986666666666</v>
+      </c>
+      <c r="G40">
+        <v>2.2171052197754299E-2</v>
+      </c>
+      <c r="H40">
+        <v>-0.69999999999999896</v>
+      </c>
+      <c r="I40" s="3">
+        <v>1.11022302462515E-16</v>
+      </c>
+      <c r="J40">
+        <v>1.8666666666666599E-2</v>
+      </c>
+      <c r="K40">
+        <v>4.9888765156985799E-3</v>
+      </c>
+      <c r="L40">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>101</v>
+      </c>
+      <c r="C41">
+        <v>11.74</v>
+      </c>
+      <c r="D41">
+        <v>6.3059999999999903</v>
+      </c>
+      <c r="E41">
+        <v>5.1613951602255598E-2</v>
+      </c>
+      <c r="F41">
+        <v>9.4326666666666608</v>
+      </c>
+      <c r="G41">
+        <v>2.86278807381115E-2</v>
+      </c>
+      <c r="H41">
+        <v>-0.67733333333333301</v>
+      </c>
+      <c r="I41">
+        <v>6.6479737932362101E-2</v>
+      </c>
+      <c r="J41">
+        <v>1.93333333333333E-2</v>
+      </c>
+      <c r="K41">
+        <v>1.06249183003394E-2</v>
+      </c>
+      <c r="L41">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>101</v>
+      </c>
+      <c r="C42">
+        <v>11.74</v>
+      </c>
+      <c r="D42">
+        <v>6.3059999999999903</v>
+      </c>
+      <c r="E42">
+        <v>7.6837490849194001E-2</v>
+      </c>
+      <c r="F42">
+        <v>9.3659999999999997</v>
+      </c>
+      <c r="G42">
+        <v>1.0832051206181E-2</v>
+      </c>
+      <c r="H42">
+        <v>-0.68866666666666598</v>
+      </c>
+      <c r="I42">
+        <v>4.2405450383437897E-2</v>
+      </c>
+      <c r="J42">
+        <v>1.59999999999999E-2</v>
+      </c>
+      <c r="K42">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="L42">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>106</v>
+      </c>
+      <c r="C43">
+        <v>12.83</v>
+      </c>
+      <c r="D43">
+        <v>7.2960000000000003</v>
+      </c>
+      <c r="E43">
+        <v>2.2449944320643601E-2</v>
+      </c>
+      <c r="F43">
+        <v>10.36</v>
+      </c>
+      <c r="G43">
+        <v>4.30503581092345E-2</v>
+      </c>
+      <c r="H43">
+        <v>-0.63733333333333297</v>
+      </c>
+      <c r="I43">
+        <v>9.6779244790513905E-2</v>
+      </c>
+      <c r="J43">
+        <v>2.0666666666666601E-2</v>
+      </c>
+      <c r="K43">
+        <v>9.28559218478941E-3</v>
+      </c>
+      <c r="L43">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>106</v>
+      </c>
+      <c r="C44">
+        <v>12.83</v>
+      </c>
+      <c r="D44">
+        <v>7.5119999999999996</v>
+      </c>
+      <c r="E44">
+        <v>9.2173748974423403E-2</v>
+      </c>
+      <c r="F44">
+        <v>10.592666666666601</v>
+      </c>
+      <c r="G44">
+        <v>2.26470503352839E-2</v>
+      </c>
+      <c r="H44">
+        <v>-0.68333333333333302</v>
+      </c>
+      <c r="I44">
+        <v>4.5558265502052997E-2</v>
+      </c>
+      <c r="J44">
+        <v>1.8666666666666599E-2</v>
+      </c>
+      <c r="K44">
+        <v>4.9888765156985799E-3</v>
+      </c>
+      <c r="L44">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>103</v>
+      </c>
+      <c r="C45">
+        <v>12.17</v>
+      </c>
+      <c r="D45">
+        <v>6.7933333333333303</v>
+      </c>
+      <c r="E45">
+        <v>8.86691728969108E-2</v>
+      </c>
+      <c r="F45">
+        <v>10.030666666666599</v>
+      </c>
+      <c r="G45">
+        <v>2.1437246921084199E-2</v>
+      </c>
+      <c r="H45">
+        <v>-0.68399999999999905</v>
+      </c>
+      <c r="I45">
+        <v>3.1999999999999897E-2</v>
+      </c>
+      <c r="J45">
+        <v>1.7333333333333301E-2</v>
+      </c>
+      <c r="K45">
+        <v>6.7986926847903801E-3</v>
+      </c>
+      <c r="L45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>103</v>
+      </c>
+      <c r="C46">
+        <v>12.17</v>
+      </c>
+      <c r="D46">
+        <v>6.75</v>
+      </c>
+      <c r="E46">
+        <v>8.2894080436594506E-2</v>
+      </c>
+      <c r="F46">
+        <v>9.7385714285714293</v>
+      </c>
+      <c r="G46">
+        <v>4.1206300291017003E-2</v>
+      </c>
+      <c r="H46">
+        <v>-0.65142857142857102</v>
+      </c>
+      <c r="I46">
+        <v>9.0621437298021107E-2</v>
+      </c>
+      <c r="J46">
+        <v>1.7142857142857099E-2</v>
+      </c>
+      <c r="K46">
+        <v>6.9985421222376496E-3</v>
+      </c>
+      <c r="L46">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>100</v>
+      </c>
+      <c r="C47">
+        <v>11.52</v>
+      </c>
+      <c r="D47">
+        <v>6.2460000000000004</v>
+      </c>
+      <c r="E47">
+        <v>7.6837490849194001E-2</v>
+      </c>
+      <c r="F47">
+        <v>9.3533333333333299</v>
+      </c>
+      <c r="G47">
+        <v>2.7728845790780301E-2</v>
+      </c>
+      <c r="H47">
+        <v>-0.67199999999999904</v>
+      </c>
+      <c r="I47">
+        <v>6.7646138101150999E-2</v>
+      </c>
+      <c r="J47">
+        <v>1.8666666666666599E-2</v>
+      </c>
+      <c r="K47">
+        <v>4.9888765156985799E-3</v>
+      </c>
+      <c r="L47">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>100</v>
+      </c>
+      <c r="C48">
+        <v>11.52</v>
+      </c>
+      <c r="D48">
+        <v>5.9073333333333302</v>
+      </c>
+      <c r="E48">
+        <v>4.6542692468552201E-2</v>
+      </c>
+      <c r="F48">
+        <v>9.1739999999999995</v>
+      </c>
+      <c r="G48">
+        <v>2.8705400188814501E-2</v>
+      </c>
+      <c r="H48">
+        <v>-0.539333333333333</v>
+      </c>
+      <c r="I48">
+        <v>0.114103267067843</v>
+      </c>
+      <c r="J48">
+        <v>1.3333333333333299E-2</v>
+      </c>
+      <c r="K48">
+        <v>9.4280904158206297E-3</v>
+      </c>
+      <c r="L48">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>97</v>
+      </c>
+      <c r="C49">
+        <v>10.87</v>
+      </c>
+      <c r="D49">
+        <v>5.4913333333333298</v>
+      </c>
+      <c r="E49">
+        <v>7.1261646221668196E-2</v>
+      </c>
+      <c r="F49">
+        <v>8.7166666666666597</v>
+      </c>
+      <c r="G49">
+        <v>3.4383458555273701E-2</v>
+      </c>
+      <c r="H49">
+        <v>-0.56200000000000006</v>
+      </c>
+      <c r="I49">
+        <v>0.12188519188154</v>
+      </c>
+      <c r="J49">
+        <v>1.8666666666666599E-2</v>
+      </c>
+      <c r="K49">
+        <v>4.9888765156985799E-3</v>
+      </c>
+      <c r="L49">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>97</v>
+      </c>
+      <c r="C50">
+        <v>10.87</v>
+      </c>
+      <c r="D50">
+        <v>5.3664285714285702</v>
+      </c>
+      <c r="E50">
+        <v>2.3178543913696999E-2</v>
+      </c>
+      <c r="F50">
+        <v>8.6464285714285705</v>
+      </c>
+      <c r="G50">
+        <v>2.0565971498411301E-2</v>
+      </c>
+      <c r="H50">
+        <v>-0.45285714285714301</v>
+      </c>
+      <c r="I50">
+        <v>4.6357087827394103E-2</v>
+      </c>
+      <c r="J50">
+        <v>1.5714285714285701E-2</v>
+      </c>
+      <c r="K50">
+        <v>8.2065180664828898E-3</v>
+      </c>
+      <c r="L50">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>94</v>
+      </c>
+      <c r="C51">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="D51">
+        <v>4.9319999999999897</v>
+      </c>
+      <c r="E51">
+        <v>7.9598994968529402E-2</v>
+      </c>
+      <c r="F51">
+        <v>8.1419999999999995</v>
+      </c>
+      <c r="G51">
+        <v>3.9698866482558402E-2</v>
+      </c>
+      <c r="H51">
+        <v>-0.49333333333333301</v>
+      </c>
+      <c r="I51">
+        <v>7.7344826732123603E-2</v>
+      </c>
+      <c r="J51">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="K51">
+        <v>7.4833147735478799E-3</v>
+      </c>
+      <c r="L51">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A85C539-6AFE-FB41-8E42-621377AD1F9A}">
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" zoomScale="197" zoomScaleNormal="197" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+    <sheetView zoomScale="197" zoomScaleNormal="197" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
